--- a/tests/rotor4/Rotor4_Thrust_Constant_Calculation.xlsx
+++ b/tests/rotor4/Rotor4_Thrust_Constant_Calculation.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fer\repos\rx-2\tests\rotor4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B11041-56D5-45AF-8D4E-47BC08679A36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEBFD61-9934-43D3-AFD5-5E933B58A442}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotor2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Force {N} (mean)</t>
   </si>
@@ -44,6 +52,9 @@
   </si>
   <si>
     <t>Rotor 4 Thrust Test 5</t>
+  </si>
+  <si>
+    <t>offset</t>
   </si>
 </sst>
 </file>
@@ -594,6 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,7 +615,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -747,8 +758,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -765,16 +776,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -970,121 +991,121 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Rotor2!$C$3:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>9.9999999999989875E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0.19999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0.29999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>0.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>0.49999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>0.59999999999998987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>0.69999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>0.79999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>0.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>0.99999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>1.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>1.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>1.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>1.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>1.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>1.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>1.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>1.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>1.9999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>2.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>2.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>2.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>2.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>2.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>2.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>2.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>2.8999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>2.9999999999999796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>3.0999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>3.1999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>3.2999999999999794</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>3.3999999999999808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$A$3:$A$37</c:f>
               <c:numCache>
@@ -1197,7 +1218,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1220,132 +1241,142 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Rotor2!$C$3:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>9.9999999999989875E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0.19999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0.29999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>0.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>0.49999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>0.59999999999998987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>0.69999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>0.79999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>0.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>0.99999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>1.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>1.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>1.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>1.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>1.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>1.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>1.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>1.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>1.9999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>2.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>2.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>2.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>2.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>2.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>2.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>2.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>2.8999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>2.9999999999999796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>3.0999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>3.1999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>3.2999999999999794</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>3.3999999999999808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$B$3:$B$37</c:f>
               <c:numCache>
@@ -1458,7 +1489,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1474,11 +1505,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="134086735"/>
         <c:axId val="71346895"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="134086735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1524,11 +1554,8 @@
         </c:txPr>
         <c:crossAx val="71346895"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="71346895"/>
         <c:scaling>
@@ -1583,7 +1610,7 @@
         </c:txPr>
         <c:crossAx val="134086735"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1747,8 +1774,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1765,16 +1792,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -1828,121 +1865,121 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Rotor2!$I$3:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>9.9999999999989875E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0.19999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0.29999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>0.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>0.49999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>0.59999999999998987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>0.69999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>0.79999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>0.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>0.99999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>1.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>1.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>1.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>1.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>1.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>1.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>1.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>1.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>1.9999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>2.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>2.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>2.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>2.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>2.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>2.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>2.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>2.8999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>2.9999999999999796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>3.0999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>3.1999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>3.2999999999999794</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>3.3999999999999808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$G$3:$G$37</c:f>
               <c:numCache>
@@ -2055,7 +2092,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2078,132 +2115,142 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Rotor2!$I$3:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>9.9999999999989875E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0.19999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0.29999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>0.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>0.49999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>0.59999999999998987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>0.69999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>0.79999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>0.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>0.99999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>1.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>1.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>1.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>1.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>1.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>1.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>1.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>1.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>1.9999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>2.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>2.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>2.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>2.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>2.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>2.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>2.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>2.8999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>2.9999999999999796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>3.0999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>3.1999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>3.2999999999999794</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>3.3999999999999808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$H$3:$H$37</c:f>
               <c:numCache>
@@ -2316,7 +2363,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2332,11 +2379,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="243341903"/>
         <c:axId val="149250335"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="243341903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2382,11 +2428,8 @@
         </c:txPr>
         <c:crossAx val="149250335"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="149250335"/>
         <c:scaling>
@@ -2441,7 +2484,7 @@
         </c:txPr>
         <c:crossAx val="243341903"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2598,8 +2641,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2616,16 +2659,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -2679,121 +2732,121 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Rotor2!$F$3:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>9.9999999999989875E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0.19999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0.29999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>0.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>0.49999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>0.59999999999998987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>0.69999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>0.79999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>0.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>0.99999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>1.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>1.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>1.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>1.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>1.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>1.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>1.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>1.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>1.9999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>2.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>2.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>2.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>2.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>2.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>2.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>2.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>2.8999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>2.9999999999999796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>3.0999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>3.1999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>3.2999999999999794</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>3.3999999999999808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$D$3:$D$37</c:f>
               <c:numCache>
@@ -2906,7 +2959,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2929,132 +2982,142 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Rotor2!$F$3:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>9.9999999999989875E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0.19999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0.29999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>0.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>0.49999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>0.59999999999998987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>0.69999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>0.79999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>0.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>0.99999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>1.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>1.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>1.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>1.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>1.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>1.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>1.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>1.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>1.9999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>2.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>2.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>2.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>2.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>2.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>2.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>2.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>2.8999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>2.9999999999999796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>3.0999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>3.1999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>3.2999999999999794</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>3.3999999999999808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$E$3:$E$37</c:f>
               <c:numCache>
@@ -3167,7 +3230,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3183,11 +3246,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="134076335"/>
         <c:axId val="149268639"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="134076335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -3233,11 +3295,8 @@
         </c:txPr>
         <c:crossAx val="149268639"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="149268639"/>
         <c:scaling>
@@ -3292,7 +3351,7 @@
         </c:txPr>
         <c:crossAx val="134076335"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3456,8 +3515,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3474,16 +3533,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -3537,121 +3606,121 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Rotor2!$L$3:$L$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>9.9999999999989875E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0.19999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0.29999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>0.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>0.49999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>0.59999999999998987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>0.69999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>0.79999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>0.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>0.99999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>1.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>1.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>1.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>1.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>1.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>1.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>1.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>1.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>1.9999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>2.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>2.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>2.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>2.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>2.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>2.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>2.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>2.8999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>2.9999999999999796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>3.0999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>3.1999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>3.2999999999999794</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>3.3999999999999808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$J$3:$J$37</c:f>
               <c:numCache>
@@ -3764,7 +3833,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3787,132 +3856,142 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Rotor2!$L$3:$L$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>9.9999999999989875E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0.19999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0.29999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>0.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>0.49999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>0.59999999999998987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>0.69999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>0.79999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>0.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>0.99999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>1.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>1.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>1.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>1.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>1.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>1.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>1.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>1.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>1.9999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>2.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>2.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>2.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>2.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>2.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>2.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>2.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>2.8999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>2.9999999999999796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>3.0999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>3.1999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>3.2999999999999794</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>3.3999999999999808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$K$3:$K$37</c:f>
               <c:numCache>
@@ -4025,7 +4104,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4041,11 +4120,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="243389103"/>
         <c:axId val="62806815"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="243389103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -4091,11 +4169,8 @@
         </c:txPr>
         <c:crossAx val="62806815"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="62806815"/>
         <c:scaling>
@@ -4150,7 +4225,7 @@
         </c:txPr>
         <c:crossAx val="243389103"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4322,8 +4397,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4340,16 +4415,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -4403,121 +4488,121 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Rotor2!$O$3:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>9.9999999999989875E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0.19999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0.29999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>0.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>0.49999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>0.59999999999998987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>0.69999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>0.79999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>0.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>0.99999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>1.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>1.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>1.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>1.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>1.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>1.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>1.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>1.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>1.9999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>2.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>2.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>2.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>2.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>2.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>2.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>2.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>2.8999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>2.9999999999999796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>3.0999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>3.1999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>3.2999999999999794</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>3.3999999999999808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$M$3:$M$37</c:f>
               <c:numCache>
@@ -4630,7 +4715,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4653,132 +4738,142 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Rotor2!$O$3:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999899</c:v>
+                  <c:v>9.9999999999989875E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1999999999999904</c:v>
+                  <c:v>0.19999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2999999999999901</c:v>
+                  <c:v>0.29999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999897</c:v>
+                  <c:v>0.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4999999999999902</c:v>
+                  <c:v>0.49999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5999999999999899</c:v>
+                  <c:v>0.59999999999998987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6999999999999904</c:v>
+                  <c:v>0.69999999999999041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7999999999999901</c:v>
+                  <c:v>0.79999999999999005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8999999999999897</c:v>
+                  <c:v>0.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999902</c:v>
+                  <c:v>0.99999999999999023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999899</c:v>
+                  <c:v>1.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1999999999999904</c:v>
+                  <c:v>1.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2999999999999901</c:v>
+                  <c:v>1.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>1.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4999999999999902</c:v>
+                  <c:v>1.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999899</c:v>
+                  <c:v>1.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6999999999999904</c:v>
+                  <c:v>1.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>1.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8999999999999897</c:v>
+                  <c:v>1.8999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9999999999999902</c:v>
+                  <c:v>1.9999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0999999999999899</c:v>
+                  <c:v>2.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>2.1999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>2.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>2.3999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999902</c:v>
+                  <c:v>2.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5999999999999899</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6999999999999904</c:v>
+                  <c:v>2.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7999999999999901</c:v>
+                  <c:v>2.7999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8999999999999799</c:v>
+                  <c:v>2.8999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9999999999999796</c:v>
+                  <c:v>2.9999999999999796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0999999999999801</c:v>
+                  <c:v>3.0999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1999999999999797</c:v>
+                  <c:v>3.1999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2999999999999794</c:v>
+                  <c:v>3.2999999999999794</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3999999999999808</c:v>
+                  <c:v>3.3999999999999808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Rotor2!$N$3:$N$37</c:f>
               <c:numCache>
@@ -4891,7 +4986,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4907,11 +5002,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="247911263"/>
         <c:axId val="251369759"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="247911263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -4957,11 +5051,8 @@
         </c:txPr>
         <c:crossAx val="251369759"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="251369759"/>
         <c:scaling>
@@ -5016,7 +5107,7 @@
         </c:txPr>
         <c:crossAx val="247911263"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8363,42 +8454,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="4" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8445,7 +8536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8453,7 +8544,8 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <f>P3-$B$38</f>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -8462,7 +8554,8 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <f>P3-$B$38</f>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -8471,7 +8564,8 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <f>P3-$B$38</f>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -8480,7 +8574,8 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <f>P3-$B$38</f>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -8489,10 +8584,14 @@
         <v>0</v>
       </c>
       <c r="O3">
+        <f>P3-$B$38</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8500,7 +8599,8 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.0999999999999899</v>
+        <f t="shared" ref="C4:C37" si="0">P4-$B$38</f>
+        <v>9.9999999999989875E-2</v>
       </c>
       <c r="D4">
         <v>1.5E-3</v>
@@ -8509,7 +8609,8 @@
         <v>6.7082039324993601E-3</v>
       </c>
       <c r="F4">
-        <v>5.0999999999999899</v>
+        <f t="shared" ref="F4:F36" si="1">P4-$B$38</f>
+        <v>9.9999999999989875E-2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -8518,7 +8619,8 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.0999999999999899</v>
+        <f t="shared" ref="I4:I37" si="2">P4-$B$38</f>
+        <v>9.9999999999989875E-2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -8527,7 +8629,8 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.0999999999999899</v>
+        <f t="shared" ref="L4:L37" si="3">P4-$B$38</f>
+        <v>9.9999999999989875E-2</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -8536,10 +8639,14 @@
         <v>0</v>
       </c>
       <c r="O4">
+        <f t="shared" ref="O4:O37" si="4">P4-$B$38</f>
+        <v>9.9999999999989875E-2</v>
+      </c>
+      <c r="P4">
         <v>5.0999999999999899</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8547,7 +8654,8 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.1999999999999904</v>
+        <f t="shared" si="0"/>
+        <v>0.19999999999999041</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -8556,7 +8664,8 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.1999999999999904</v>
+        <f t="shared" si="1"/>
+        <v>0.19999999999999041</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -8565,7 +8674,8 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.1999999999999904</v>
+        <f t="shared" si="2"/>
+        <v>0.19999999999999041</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -8574,7 +8684,8 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.1999999999999904</v>
+        <f t="shared" si="3"/>
+        <v>0.19999999999999041</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -8583,10 +8694,14 @@
         <v>0</v>
       </c>
       <c r="O5">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999041</v>
+      </c>
+      <c r="P5">
         <v>5.1999999999999904</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8594,7 +8709,8 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.2999999999999901</v>
+        <f t="shared" si="0"/>
+        <v>0.29999999999999005</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8603,7 +8719,8 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.2999999999999901</v>
+        <f t="shared" si="1"/>
+        <v>0.29999999999999005</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -8612,7 +8729,8 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.2999999999999901</v>
+        <f t="shared" si="2"/>
+        <v>0.29999999999999005</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -8621,7 +8739,8 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.2999999999999901</v>
+        <f t="shared" si="3"/>
+        <v>0.29999999999999005</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -8630,10 +8749,14 @@
         <v>0</v>
       </c>
       <c r="O6">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999005</v>
+      </c>
+      <c r="P6">
         <v>5.2999999999999901</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.129</v>
       </c>
@@ -8641,7 +8764,8 @@
         <v>1.99736668746891E-2</v>
       </c>
       <c r="C7">
-        <v>5.3999999999999897</v>
+        <f t="shared" si="0"/>
+        <v>0.3999999999999897</v>
       </c>
       <c r="D7">
         <v>0.14799999999999899</v>
@@ -8650,7 +8774,8 @@
         <v>4.0209975196002702E-2</v>
       </c>
       <c r="F7">
-        <v>5.3999999999999897</v>
+        <f t="shared" si="1"/>
+        <v>0.3999999999999897</v>
       </c>
       <c r="G7">
         <v>0.107999999999999</v>
@@ -8659,7 +8784,8 @@
         <v>1.36111409475744E-2</v>
       </c>
       <c r="I7">
-        <v>5.3999999999999897</v>
+        <f t="shared" si="2"/>
+        <v>0.3999999999999897</v>
       </c>
       <c r="J7">
         <v>0.12</v>
@@ -8668,7 +8794,8 @@
         <v>7.9471941423902605E-3</v>
       </c>
       <c r="L7">
-        <v>5.3999999999999897</v>
+        <f t="shared" si="3"/>
+        <v>0.3999999999999897</v>
       </c>
       <c r="M7">
         <v>0.1085</v>
@@ -8677,10 +8804,14 @@
         <v>5.8714294861239901E-3</v>
       </c>
       <c r="O7">
+        <f t="shared" si="4"/>
+        <v>0.3999999999999897</v>
+      </c>
+      <c r="P7">
         <v>5.3999999999999897</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.254</v>
       </c>
@@ -8688,7 +8819,8 @@
         <v>2.13738650052618E-2</v>
       </c>
       <c r="C8">
-        <v>5.4999999999999902</v>
+        <f t="shared" si="0"/>
+        <v>0.49999999999999023</v>
       </c>
       <c r="D8">
         <v>0.252999999999999</v>
@@ -8697,7 +8829,8 @@
         <v>1.7198531149031599E-2</v>
       </c>
       <c r="F8">
-        <v>5.4999999999999902</v>
+        <f t="shared" si="1"/>
+        <v>0.49999999999999023</v>
       </c>
       <c r="G8">
         <v>0.21149999999999899</v>
@@ -8706,7 +8839,8 @@
         <v>3.6634754853252299E-3</v>
       </c>
       <c r="I8">
-        <v>5.4999999999999902</v>
+        <f t="shared" si="2"/>
+        <v>0.49999999999999023</v>
       </c>
       <c r="J8">
         <v>0.23399999999999899</v>
@@ -8715,7 +8849,8 @@
         <v>1.31389337066357E-2</v>
       </c>
       <c r="L8">
-        <v>5.4999999999999902</v>
+        <f t="shared" si="3"/>
+        <v>0.49999999999999023</v>
       </c>
       <c r="M8">
         <v>0.22650000000000001</v>
@@ -8724,10 +8859,14 @@
         <v>4.8936048492959298E-3</v>
       </c>
       <c r="O8">
+        <f t="shared" si="4"/>
+        <v>0.49999999999999023</v>
+      </c>
+      <c r="P8">
         <v>5.4999999999999902</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.378</v>
       </c>
@@ -8735,7 +8874,8 @@
         <v>2.2849622823099099E-2</v>
       </c>
       <c r="C9">
-        <v>5.5999999999999899</v>
+        <f t="shared" si="0"/>
+        <v>0.59999999999998987</v>
       </c>
       <c r="D9">
         <v>0.35699999999999898</v>
@@ -8744,16 +8884,18 @@
         <v>8.6450472587061792E-3</v>
       </c>
       <c r="F9">
-        <v>5.5999999999999899</v>
+        <f t="shared" si="1"/>
+        <v>0.59999999999998987</v>
       </c>
       <c r="G9">
         <v>0.33999999999999903</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>5.6953239462595598E-17</v>
       </c>
       <c r="I9">
-        <v>5.5999999999999899</v>
+        <f t="shared" si="2"/>
+        <v>0.59999999999998987</v>
       </c>
       <c r="J9">
         <v>0.35699999999999998</v>
@@ -8762,7 +8904,8 @@
         <v>2.6576602293628099E-2</v>
       </c>
       <c r="L9">
-        <v>5.5999999999999899</v>
+        <f t="shared" si="3"/>
+        <v>0.59999999999998987</v>
       </c>
       <c r="M9">
         <v>0.374</v>
@@ -8771,10 +8914,14 @@
         <v>3.3934922239021198E-2</v>
       </c>
       <c r="O9">
+        <f t="shared" si="4"/>
+        <v>0.59999999999998987</v>
+      </c>
+      <c r="P9">
         <v>5.5999999999999899</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.58299999999999896</v>
       </c>
@@ -8782,7 +8929,8 @@
         <v>0.114895833830382</v>
       </c>
       <c r="C10">
-        <v>5.6999999999999904</v>
+        <f t="shared" si="0"/>
+        <v>0.69999999999999041</v>
       </c>
       <c r="D10">
         <v>0.55149999999999899</v>
@@ -8791,7 +8939,8 @@
         <v>7.6727473978737804E-2</v>
       </c>
       <c r="F10">
-        <v>5.6999999999999904</v>
+        <f t="shared" si="1"/>
+        <v>0.69999999999999041</v>
       </c>
       <c r="G10">
         <v>0.45800000000000002</v>
@@ -8800,7 +8949,8 @@
         <v>6.1558701125109102E-3</v>
       </c>
       <c r="I10">
-        <v>5.6999999999999904</v>
+        <f t="shared" si="2"/>
+        <v>0.69999999999999041</v>
       </c>
       <c r="J10">
         <v>0.48699999999999999</v>
@@ -8809,7 +8959,8 @@
         <v>6.5694668533178603E-3</v>
       </c>
       <c r="L10">
-        <v>5.6999999999999904</v>
+        <f t="shared" si="3"/>
+        <v>0.69999999999999041</v>
       </c>
       <c r="M10">
         <v>0.49099999999999899</v>
@@ -8818,10 +8969,14 @@
         <v>2.5319017192200501E-2</v>
       </c>
       <c r="O10">
+        <f t="shared" si="4"/>
+        <v>0.69999999999999041</v>
+      </c>
+      <c r="P10">
         <v>5.6999999999999904</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.64700000000000002</v>
       </c>
@@ -8829,7 +8984,8 @@
         <v>1.8945906376340301E-2</v>
       </c>
       <c r="C11">
-        <v>5.7999999999999901</v>
+        <f t="shared" si="0"/>
+        <v>0.79999999999999005</v>
       </c>
       <c r="D11">
         <v>0.621999999999999</v>
@@ -8838,7 +8994,8 @@
         <v>6.1558701125109302E-3</v>
       </c>
       <c r="F11">
-        <v>5.7999999999999901</v>
+        <f t="shared" si="1"/>
+        <v>0.79999999999999005</v>
       </c>
       <c r="G11">
         <v>0.61149999999999904</v>
@@ -8847,7 +9004,8 @@
         <v>7.4515982037059499E-3</v>
       </c>
       <c r="I11">
-        <v>5.7999999999999901</v>
+        <f t="shared" si="2"/>
+        <v>0.79999999999999005</v>
       </c>
       <c r="J11">
         <v>0.6845</v>
@@ -8856,7 +9014,8 @@
         <v>6.4602020499606394E-2</v>
       </c>
       <c r="L11">
-        <v>5.7999999999999901</v>
+        <f t="shared" si="3"/>
+        <v>0.79999999999999005</v>
       </c>
       <c r="M11">
         <v>0.64500000000000002</v>
@@ -8865,10 +9024,14 @@
         <v>1.8496087779795299E-2</v>
       </c>
       <c r="O11">
+        <f t="shared" si="4"/>
+        <v>0.79999999999999005</v>
+      </c>
+      <c r="P11">
         <v>5.7999999999999901</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.816499999999999</v>
       </c>
@@ -8876,7 +9039,8 @@
         <v>1.18210338847861E-2</v>
       </c>
       <c r="C12">
-        <v>5.8999999999999897</v>
+        <f t="shared" si="0"/>
+        <v>0.8999999999999897</v>
       </c>
       <c r="D12">
         <v>0.78399999999999903</v>
@@ -8885,7 +9049,8 @@
         <v>1.04629672756119E-2</v>
       </c>
       <c r="F12">
-        <v>5.8999999999999897</v>
+        <f t="shared" si="1"/>
+        <v>0.8999999999999897</v>
       </c>
       <c r="G12">
         <v>0.78349999999999898</v>
@@ -8894,7 +9059,8 @@
         <v>4.8936048492959298E-3</v>
       </c>
       <c r="I12">
-        <v>5.8999999999999897</v>
+        <f t="shared" si="2"/>
+        <v>0.8999999999999897</v>
       </c>
       <c r="J12">
         <v>0.75600000000000001</v>
@@ -8903,7 +9069,8 @@
         <v>1.46539019413009E-2</v>
       </c>
       <c r="L12">
-        <v>5.8999999999999897</v>
+        <f t="shared" si="3"/>
+        <v>0.8999999999999897</v>
       </c>
       <c r="M12">
         <v>0.83499999999999897</v>
@@ -8912,10 +9079,14 @@
         <v>3.0348848933344202E-2</v>
       </c>
       <c r="O12">
+        <f t="shared" si="4"/>
+        <v>0.8999999999999897</v>
+      </c>
+      <c r="P12">
         <v>5.8999999999999897</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.1444999999999901</v>
       </c>
@@ -8923,7 +9094,8 @@
         <v>0.17258026355415301</v>
       </c>
       <c r="C13">
-        <v>5.9999999999999902</v>
+        <f t="shared" si="0"/>
+        <v>0.99999999999999023</v>
       </c>
       <c r="D13">
         <v>0.98299999999999899</v>
@@ -8932,7 +9104,8 @@
         <v>1.1742858972247999E-2</v>
       </c>
       <c r="F13">
-        <v>5.9999999999999902</v>
+        <f t="shared" si="1"/>
+        <v>0.99999999999999023</v>
       </c>
       <c r="G13">
         <v>0.98249999999999904</v>
@@ -8941,7 +9114,8 @@
         <v>7.8639751565704897E-3</v>
       </c>
       <c r="I13">
-        <v>5.9999999999999902</v>
+        <f t="shared" si="2"/>
+        <v>0.99999999999999023</v>
       </c>
       <c r="J13">
         <v>0.98199999999999898</v>
@@ -8950,7 +9124,8 @@
         <v>1.98944583661936E-2</v>
       </c>
       <c r="L13">
-        <v>5.9999999999999902</v>
+        <f t="shared" si="3"/>
+        <v>0.99999999999999023</v>
       </c>
       <c r="M13">
         <v>1.0134999999999901</v>
@@ -8959,10 +9134,14 @@
         <v>3.8151360602073803E-2</v>
       </c>
       <c r="O13">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999023</v>
+      </c>
+      <c r="P13">
         <v>5.9999999999999902</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.2969999999999999</v>
       </c>
@@ -8970,7 +9149,8 @@
         <v>2.10513157483527E-2</v>
       </c>
       <c r="C14">
-        <v>6.0999999999999899</v>
+        <f t="shared" si="0"/>
+        <v>1.0999999999999899</v>
       </c>
       <c r="D14">
         <v>1.25</v>
@@ -8979,7 +9159,8 @@
         <v>1.1697953037311999E-2</v>
       </c>
       <c r="F14">
-        <v>6.0999999999999899</v>
+        <f t="shared" si="1"/>
+        <v>1.0999999999999899</v>
       </c>
       <c r="G14">
         <v>1.24399999999999</v>
@@ -8988,7 +9169,8 @@
         <v>1.1876558069531201E-2</v>
       </c>
       <c r="I14">
-        <v>6.0999999999999899</v>
+        <f t="shared" si="2"/>
+        <v>1.0999999999999899</v>
       </c>
       <c r="J14">
         <v>1.2295</v>
@@ -8997,7 +9179,8 @@
         <v>1.53811230854063E-2</v>
       </c>
       <c r="L14">
-        <v>6.0999999999999899</v>
+        <f t="shared" si="3"/>
+        <v>1.0999999999999899</v>
       </c>
       <c r="M14">
         <v>1.254</v>
@@ -9006,10 +9189,14 @@
         <v>2.9982451007565299E-2</v>
       </c>
       <c r="O14">
+        <f t="shared" si="4"/>
+        <v>1.0999999999999899</v>
+      </c>
+      <c r="P14">
         <v>6.0999999999999899</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.71599999999999</v>
       </c>
@@ -9017,7 +9204,8 @@
         <v>6.5726706900619894E-2</v>
       </c>
       <c r="C15">
-        <v>6.1999999999999904</v>
+        <f t="shared" si="0"/>
+        <v>1.1999999999999904</v>
       </c>
       <c r="D15">
         <v>1.5215000000000001</v>
@@ -9026,7 +9214,8 @@
         <v>1.0894228312566E-2</v>
       </c>
       <c r="F15">
-        <v>6.1999999999999904</v>
+        <f t="shared" si="1"/>
+        <v>1.1999999999999904</v>
       </c>
       <c r="G15">
         <v>1.5209999999999999</v>
@@ -9035,7 +9224,8 @@
         <v>8.5224162622679102E-3</v>
       </c>
       <c r="I15">
-        <v>6.1999999999999904</v>
+        <f t="shared" si="2"/>
+        <v>1.1999999999999904</v>
       </c>
       <c r="J15">
         <v>1.50249999999999</v>
@@ -9044,7 +9234,8 @@
         <v>9.6654566695826092E-3</v>
       </c>
       <c r="L15">
-        <v>6.1999999999999904</v>
+        <f t="shared" si="3"/>
+        <v>1.1999999999999904</v>
       </c>
       <c r="M15">
         <v>1.5209999999999899</v>
@@ -9053,10 +9244,14 @@
         <v>1.68272961207926E-2</v>
       </c>
       <c r="O15">
+        <f t="shared" si="4"/>
+        <v>1.1999999999999904</v>
+      </c>
+      <c r="P15">
         <v>6.1999999999999904</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.9704999999999899</v>
       </c>
@@ -9064,7 +9259,8 @@
         <v>4.8501220820229202E-2</v>
       </c>
       <c r="C16">
-        <v>6.2999999999999901</v>
+        <f t="shared" si="0"/>
+        <v>1.2999999999999901</v>
       </c>
       <c r="D16">
         <v>1.8514999999999999</v>
@@ -9073,7 +9269,8 @@
         <v>2.1095023109728901E-2</v>
       </c>
       <c r="F16">
-        <v>6.2999999999999901</v>
+        <f t="shared" si="1"/>
+        <v>1.2999999999999901</v>
       </c>
       <c r="G16">
         <v>1.9229999999999901</v>
@@ -9082,7 +9279,8 @@
         <v>0.14682965425424399</v>
       </c>
       <c r="I16">
-        <v>6.2999999999999901</v>
+        <f t="shared" si="2"/>
+        <v>1.2999999999999901</v>
       </c>
       <c r="J16">
         <v>1.8265</v>
@@ -9091,7 +9289,8 @@
         <v>2.51887610693842E-2</v>
       </c>
       <c r="L16">
-        <v>6.2999999999999901</v>
+        <f t="shared" si="3"/>
+        <v>1.2999999999999901</v>
       </c>
       <c r="M16">
         <v>1.8279999999999901</v>
@@ -9100,10 +9299,14 @@
         <v>2.85804497036551E-2</v>
       </c>
       <c r="O16">
+        <f t="shared" si="4"/>
+        <v>1.2999999999999901</v>
+      </c>
+      <c r="P16">
         <v>6.2999999999999901</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.2829999999999901</v>
       </c>
@@ -9111,7 +9314,8 @@
         <v>5.7225316443906701E-2</v>
       </c>
       <c r="C17">
-        <v>6.3999999999999897</v>
+        <f t="shared" si="0"/>
+        <v>1.3999999999999897</v>
       </c>
       <c r="D17">
         <v>2.3410000000000002</v>
@@ -9120,7 +9324,8 @@
         <v>6.2314989326299697E-2</v>
       </c>
       <c r="F17">
-        <v>6.3999999999999897</v>
+        <f t="shared" si="1"/>
+        <v>1.3999999999999897</v>
       </c>
       <c r="G17">
         <v>2.2105000000000001</v>
@@ -9129,7 +9334,8 @@
         <v>2.7042850986419401E-2</v>
       </c>
       <c r="I17">
-        <v>6.3999999999999897</v>
+        <f t="shared" si="2"/>
+        <v>1.3999999999999897</v>
       </c>
       <c r="J17">
         <v>2.1949999999999901</v>
@@ -9138,7 +9344,8 @@
         <v>6.1430319961126002E-2</v>
       </c>
       <c r="L17">
-        <v>6.3999999999999897</v>
+        <f t="shared" si="3"/>
+        <v>1.3999999999999897</v>
       </c>
       <c r="M17">
         <v>2.1824999999999899</v>
@@ -9147,10 +9354,14 @@
         <v>2.29128784747792E-2</v>
       </c>
       <c r="O17">
+        <f t="shared" si="4"/>
+        <v>1.3999999999999897</v>
+      </c>
+      <c r="P17">
         <v>6.3999999999999897</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.6399999999999899</v>
       </c>
@@ -9158,7 +9369,8 @@
         <v>2.4279079146675299E-2</v>
       </c>
       <c r="C18">
-        <v>6.4999999999999902</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999902</v>
       </c>
       <c r="D18">
         <v>2.7229999999999901</v>
@@ -9167,7 +9379,8 @@
         <v>8.7545476903811398E-2</v>
       </c>
       <c r="F18">
-        <v>6.4999999999999902</v>
+        <f t="shared" si="1"/>
+        <v>1.4999999999999902</v>
       </c>
       <c r="G18">
         <v>2.7565</v>
@@ -9176,7 +9389,8 @@
         <v>0.35837755745053301</v>
       </c>
       <c r="I18">
-        <v>6.4999999999999902</v>
+        <f t="shared" si="2"/>
+        <v>1.4999999999999902</v>
       </c>
       <c r="J18">
         <v>2.677</v>
@@ -9185,7 +9399,8 @@
         <v>5.4299365121809398E-2</v>
       </c>
       <c r="L18">
-        <v>6.4999999999999902</v>
+        <f t="shared" si="3"/>
+        <v>1.4999999999999902</v>
       </c>
       <c r="M18">
         <v>2.625</v>
@@ -9194,10 +9409,14 @@
         <v>2.9647046537910799E-2</v>
       </c>
       <c r="O18">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999902</v>
+      </c>
+      <c r="P18">
         <v>6.4999999999999902</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.1034999999999902</v>
       </c>
@@ -9205,7 +9424,8 @@
         <v>4.0946049227836602E-2</v>
       </c>
       <c r="C19">
-        <v>6.5999999999999899</v>
+        <f t="shared" si="0"/>
+        <v>1.5999999999999899</v>
       </c>
       <c r="D19">
         <v>3.1135000000000002</v>
@@ -9214,7 +9434,8 @@
         <v>5.1018572469661502E-2</v>
       </c>
       <c r="F19">
-        <v>6.5999999999999899</v>
+        <f t="shared" si="1"/>
+        <v>1.5999999999999899</v>
       </c>
       <c r="G19">
         <v>3.1074999999999902</v>
@@ -9223,7 +9444,8 @@
         <v>3.5522416940055701E-2</v>
       </c>
       <c r="I19">
-        <v>6.5999999999999899</v>
+        <f t="shared" si="2"/>
+        <v>1.5999999999999899</v>
       </c>
       <c r="J19">
         <v>3.1779999999999902</v>
@@ -9232,7 +9454,8 @@
         <v>6.1267317637761103E-2</v>
       </c>
       <c r="L19">
-        <v>6.5999999999999899</v>
+        <f t="shared" si="3"/>
+        <v>1.5999999999999899</v>
       </c>
       <c r="M19">
         <v>3.1025</v>
@@ -9241,10 +9464,14 @@
         <v>3.7257991018529703E-2</v>
       </c>
       <c r="O19">
+        <f t="shared" si="4"/>
+        <v>1.5999999999999899</v>
+      </c>
+      <c r="P19">
         <v>6.5999999999999899</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.54599999999999</v>
       </c>
@@ -9252,7 +9479,8 @@
         <v>2.1618705350983199E-2</v>
       </c>
       <c r="C20">
-        <v>6.6999999999999904</v>
+        <f t="shared" si="0"/>
+        <v>1.6999999999999904</v>
       </c>
       <c r="D20">
         <v>3.552</v>
@@ -9261,7 +9489,8 @@
         <v>1.8238190122579798E-2</v>
       </c>
       <c r="F20">
-        <v>6.6999999999999904</v>
+        <f t="shared" si="1"/>
+        <v>1.6999999999999904</v>
       </c>
       <c r="G20">
         <v>3.5959999999999899</v>
@@ -9270,7 +9499,8 @@
         <v>1.9574419397183698E-2</v>
       </c>
       <c r="I20">
-        <v>6.6999999999999904</v>
+        <f t="shared" si="2"/>
+        <v>1.6999999999999904</v>
       </c>
       <c r="J20">
         <v>3.6584999999999899</v>
@@ -9279,7 +9509,8 @@
         <v>0.208004934152002</v>
       </c>
       <c r="L20">
-        <v>6.6999999999999904</v>
+        <f t="shared" si="3"/>
+        <v>1.6999999999999904</v>
       </c>
       <c r="M20">
         <v>3.54449999999999</v>
@@ -9288,10 +9519,14 @@
         <v>2.1636956688426402E-2</v>
       </c>
       <c r="O20">
+        <f t="shared" si="4"/>
+        <v>1.6999999999999904</v>
+      </c>
+      <c r="P20">
         <v>6.6999999999999904</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.0039999999999996</v>
       </c>
@@ -9299,7 +9534,8 @@
         <v>4.60434577328852E-2</v>
       </c>
       <c r="C21">
-        <v>6.7999999999999901</v>
+        <f t="shared" si="0"/>
+        <v>1.7999999999999901</v>
       </c>
       <c r="D21">
         <v>4.0184999999999897</v>
@@ -9308,7 +9544,8 @@
         <v>2.3680993933621299E-2</v>
       </c>
       <c r="F21">
-        <v>6.7999999999999901</v>
+        <f t="shared" si="1"/>
+        <v>1.7999999999999901</v>
       </c>
       <c r="G21">
         <v>4.0305</v>
@@ -9317,7 +9554,8 @@
         <v>3.3162280411715601E-2</v>
       </c>
       <c r="I21">
-        <v>6.7999999999999901</v>
+        <f t="shared" si="2"/>
+        <v>1.7999999999999901</v>
       </c>
       <c r="J21">
         <v>4.0599999999999898</v>
@@ -9326,7 +9564,8 @@
         <v>4.9204193231664001E-2</v>
       </c>
       <c r="L21">
-        <v>6.7999999999999901</v>
+        <f t="shared" si="3"/>
+        <v>1.7999999999999901</v>
       </c>
       <c r="M21">
         <v>4.1369999999999996</v>
@@ -9335,10 +9574,14 @@
         <v>8.9448603295853205E-2</v>
       </c>
       <c r="O21">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999901</v>
+      </c>
+      <c r="P21">
         <v>6.7999999999999901</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4.4249999999999901</v>
       </c>
@@ -9346,7 +9589,8 @@
         <v>5.9071767234530302E-2</v>
       </c>
       <c r="C22">
-        <v>6.8999999999999897</v>
+        <f t="shared" si="0"/>
+        <v>1.8999999999999897</v>
       </c>
       <c r="D22">
         <v>4.4180000000000001</v>
@@ -9355,7 +9599,8 @@
         <v>4.3480183023872597E-2</v>
       </c>
       <c r="F22">
-        <v>6.8999999999999897</v>
+        <f t="shared" si="1"/>
+        <v>1.8999999999999897</v>
       </c>
       <c r="G22">
         <v>4.5324999999999998</v>
@@ -9364,7 +9609,8 @@
         <v>9.5524865872713902E-2</v>
       </c>
       <c r="I22">
-        <v>6.8999999999999897</v>
+        <f t="shared" si="2"/>
+        <v>1.8999999999999897</v>
       </c>
       <c r="J22">
         <v>4.4889999999999901</v>
@@ -9373,7 +9619,8 @@
         <v>5.1595593447094801E-2</v>
       </c>
       <c r="L22">
-        <v>6.8999999999999897</v>
+        <f t="shared" si="3"/>
+        <v>1.8999999999999897</v>
       </c>
       <c r="M22">
         <v>4.4409999999999998</v>
@@ -9382,10 +9629,14 @@
         <v>6.1207154724539102E-2</v>
       </c>
       <c r="O22">
+        <f t="shared" si="4"/>
+        <v>1.8999999999999897</v>
+      </c>
+      <c r="P22">
         <v>6.8999999999999897</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.9595000000000002</v>
       </c>
@@ -9393,7 +9644,8 @@
         <v>5.1756006516406501E-2</v>
       </c>
       <c r="C23">
-        <v>6.9999999999999902</v>
+        <f t="shared" si="0"/>
+        <v>1.9999999999999902</v>
       </c>
       <c r="D23">
         <v>4.952</v>
@@ -9402,7 +9654,8 @@
         <v>5.54028310125982E-2</v>
       </c>
       <c r="F23">
-        <v>6.9999999999999902</v>
+        <f t="shared" si="1"/>
+        <v>1.9999999999999902</v>
       </c>
       <c r="G23">
         <v>4.9835000000000003</v>
@@ -9411,7 +9664,8 @@
         <v>1.8431951662948198E-2</v>
       </c>
       <c r="I23">
-        <v>6.9999999999999902</v>
+        <f t="shared" si="2"/>
+        <v>1.9999999999999902</v>
       </c>
       <c r="J23">
         <v>4.9249999999999998</v>
@@ -9420,7 +9674,8 @@
         <v>9.64910685804104E-2</v>
       </c>
       <c r="L23">
-        <v>6.9999999999999902</v>
+        <f t="shared" si="3"/>
+        <v>1.9999999999999902</v>
       </c>
       <c r="M23">
         <v>5.1059999999999901</v>
@@ -9429,10 +9684,14 @@
         <v>0.113666177907062</v>
       </c>
       <c r="O23">
+        <f t="shared" si="4"/>
+        <v>1.9999999999999902</v>
+      </c>
+      <c r="P23">
         <v>6.9999999999999902</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.5169999999999897</v>
       </c>
@@ -9440,7 +9699,8 @@
         <v>4.0013155731320998E-2</v>
       </c>
       <c r="C24">
-        <v>7.0999999999999899</v>
+        <f t="shared" si="0"/>
+        <v>2.0999999999999899</v>
       </c>
       <c r="D24">
         <v>5.53399999999999</v>
@@ -9449,7 +9709,8 @@
         <v>9.7300402985047302E-2</v>
       </c>
       <c r="F24">
-        <v>7.0999999999999899</v>
+        <f t="shared" si="1"/>
+        <v>2.0999999999999899</v>
       </c>
       <c r="G24">
         <v>5.5184999999999897</v>
@@ -9458,7 +9719,8 @@
         <v>2.92493814599466E-2</v>
       </c>
       <c r="I24">
-        <v>7.0999999999999899</v>
+        <f t="shared" si="2"/>
+        <v>2.0999999999999899</v>
       </c>
       <c r="J24">
         <v>5.4580000000000002</v>
@@ -9467,7 +9729,8 @@
         <v>3.5777087639996603E-2</v>
       </c>
       <c r="L24">
-        <v>7.0999999999999899</v>
+        <f t="shared" si="3"/>
+        <v>2.0999999999999899</v>
       </c>
       <c r="M24">
         <v>5.5009999999999897</v>
@@ -9476,10 +9739,14 @@
         <v>4.5294358891239603E-2</v>
       </c>
       <c r="O24">
+        <f t="shared" si="4"/>
+        <v>2.0999999999999899</v>
+      </c>
+      <c r="P24">
         <v>7.0999999999999899</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6.33</v>
       </c>
@@ -9487,7 +9754,8 @@
         <v>0.50224757996325597</v>
       </c>
       <c r="C25">
-        <v>7.1999999999999904</v>
+        <f t="shared" si="0"/>
+        <v>2.1999999999999904</v>
       </c>
       <c r="D25">
         <v>6.0704999999999902</v>
@@ -9496,7 +9764,8 @@
         <v>4.7735565467754898E-2</v>
       </c>
       <c r="F25">
-        <v>7.1999999999999904</v>
+        <f t="shared" si="1"/>
+        <v>2.1999999999999904</v>
       </c>
       <c r="G25">
         <v>6.0609999999999999</v>
@@ -9505,7 +9774,8 @@
         <v>3.8784153030790698E-2</v>
       </c>
       <c r="I25">
-        <v>7.1999999999999904</v>
+        <f t="shared" si="2"/>
+        <v>2.1999999999999904</v>
       </c>
       <c r="J25">
         <v>6.0250000000000004</v>
@@ -9514,7 +9784,8 @@
         <v>5.5866381944591099E-2</v>
       </c>
       <c r="L25">
-        <v>7.1999999999999904</v>
+        <f t="shared" si="3"/>
+        <v>2.1999999999999904</v>
       </c>
       <c r="M25">
         <v>6.0640000000000001</v>
@@ -9523,10 +9794,14 @@
         <v>5.3449435032216802E-2</v>
       </c>
       <c r="O25">
+        <f t="shared" si="4"/>
+        <v>2.1999999999999904</v>
+      </c>
+      <c r="P25">
         <v>7.1999999999999904</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6.8339999999999996</v>
       </c>
@@ -9534,7 +9809,8 @@
         <v>0.13948778478871501</v>
       </c>
       <c r="C26">
-        <v>7.2999999999999901</v>
+        <f t="shared" si="0"/>
+        <v>2.2999999999999901</v>
       </c>
       <c r="D26">
         <v>6.62</v>
@@ -9543,7 +9819,8 @@
         <v>3.5835883222208903E-2</v>
       </c>
       <c r="F26">
-        <v>7.2999999999999901</v>
+        <f t="shared" si="1"/>
+        <v>2.2999999999999901</v>
       </c>
       <c r="G26">
         <v>6.6249999999999902</v>
@@ -9552,7 +9829,8 @@
         <v>3.8593700058565598E-2</v>
       </c>
       <c r="I26">
-        <v>7.2999999999999901</v>
+        <f t="shared" si="2"/>
+        <v>2.2999999999999901</v>
       </c>
       <c r="J26">
         <v>6.5959999999999903</v>
@@ -9561,7 +9839,8 @@
         <v>3.5003759196616802E-2</v>
       </c>
       <c r="L26">
-        <v>7.2999999999999901</v>
+        <f t="shared" si="3"/>
+        <v>2.2999999999999901</v>
       </c>
       <c r="M26">
         <v>6.6719999999999899</v>
@@ -9570,10 +9849,14 @@
         <v>0.15306001574889699</v>
       </c>
       <c r="O26">
+        <f t="shared" si="4"/>
+        <v>2.2999999999999901</v>
+      </c>
+      <c r="P26">
         <v>7.2999999999999901</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7.4480000000000004</v>
       </c>
@@ -9581,7 +9864,8 @@
         <v>5.0845483161188802E-2</v>
       </c>
       <c r="C27">
-        <v>7.3999999999999897</v>
+        <f t="shared" si="0"/>
+        <v>2.3999999999999897</v>
       </c>
       <c r="D27">
         <v>7.2749999999999897</v>
@@ -9590,7 +9874,8 @@
         <v>3.3007176253210702E-2</v>
       </c>
       <c r="F27">
-        <v>7.3999999999999897</v>
+        <f t="shared" si="1"/>
+        <v>2.3999999999999897</v>
       </c>
       <c r="G27">
         <v>7.26799999999999</v>
@@ -9599,7 +9884,8 @@
         <v>3.1388901826835701E-2</v>
       </c>
       <c r="I27">
-        <v>7.3999999999999897</v>
+        <f t="shared" si="2"/>
+        <v>2.3999999999999897</v>
       </c>
       <c r="J27">
         <v>7.2069999999999901</v>
@@ -9608,7 +9894,8 @@
         <v>6.3751160980140401E-2</v>
       </c>
       <c r="L27">
-        <v>7.3999999999999897</v>
+        <f t="shared" si="3"/>
+        <v>2.3999999999999897</v>
       </c>
       <c r="M27">
         <v>7.2239999999999904</v>
@@ -9617,10 +9904,14 @@
         <v>3.2509108035490002E-2</v>
       </c>
       <c r="O27">
+        <f t="shared" si="4"/>
+        <v>2.3999999999999897</v>
+      </c>
+      <c r="P27">
         <v>7.3999999999999897</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8.1539999999999999</v>
       </c>
@@ -9628,7 +9919,8 @@
         <v>0.119004643872236</v>
       </c>
       <c r="C28">
-        <v>7.4999999999999902</v>
+        <f t="shared" si="0"/>
+        <v>2.4999999999999902</v>
       </c>
       <c r="D28">
         <v>7.9429999999999898</v>
@@ -9637,7 +9929,8 @@
         <v>4.9214888632992802E-2</v>
       </c>
       <c r="F28">
-        <v>7.4999999999999902</v>
+        <f t="shared" si="1"/>
+        <v>2.4999999999999902</v>
       </c>
       <c r="G28">
         <v>7.8369999999999997</v>
@@ -9646,7 +9939,8 @@
         <v>3.3888361610316498E-2</v>
       </c>
       <c r="I28">
-        <v>7.4999999999999902</v>
+        <f t="shared" si="2"/>
+        <v>2.4999999999999902</v>
       </c>
       <c r="J28">
         <v>7.8419999999999996</v>
@@ -9655,7 +9949,8 @@
         <v>4.8514783422440699E-2</v>
       </c>
       <c r="L28">
-        <v>7.4999999999999902</v>
+        <f t="shared" si="3"/>
+        <v>2.4999999999999902</v>
       </c>
       <c r="M28">
         <v>8.0579999999999998</v>
@@ -9664,10 +9959,14 @@
         <v>0.49026952844972499</v>
       </c>
       <c r="O28">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999902</v>
+      </c>
+      <c r="P28">
         <v>7.4999999999999902</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8.7710000000000008</v>
       </c>
@@ -9675,7 +9974,8 @@
         <v>0.139808139210396</v>
       </c>
       <c r="C29">
-        <v>7.5999999999999899</v>
+        <f t="shared" si="0"/>
+        <v>2.5999999999999899</v>
       </c>
       <c r="D29">
         <v>8.5779999999999905</v>
@@ -9684,7 +9984,8 @@
         <v>5.3861420623475299E-2</v>
       </c>
       <c r="F29">
-        <v>7.5999999999999899</v>
+        <f t="shared" si="1"/>
+        <v>2.5999999999999899</v>
       </c>
       <c r="G29">
         <v>8.6519999999999992</v>
@@ -9693,7 +9994,8 @@
         <v>6.8794124596126605E-2</v>
       </c>
       <c r="I29">
-        <v>7.5999999999999899</v>
+        <f t="shared" si="2"/>
+        <v>2.5999999999999899</v>
       </c>
       <c r="J29">
         <v>8.4745000000000008</v>
@@ -9702,7 +10004,8 @@
         <v>0.12288098649549101</v>
       </c>
       <c r="L29">
-        <v>7.5999999999999899</v>
+        <f t="shared" si="3"/>
+        <v>2.5999999999999899</v>
       </c>
       <c r="M29">
         <v>8.5775000000000006</v>
@@ -9711,10 +10014,14 @@
         <v>0.13943023156290099</v>
       </c>
       <c r="O29">
+        <f t="shared" si="4"/>
+        <v>2.5999999999999899</v>
+      </c>
+      <c r="P29">
         <v>7.5999999999999899</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9.4684999999999899</v>
       </c>
@@ -9722,7 +10029,8 @@
         <v>0.113984070909283</v>
       </c>
       <c r="C30">
-        <v>7.6999999999999904</v>
+        <f t="shared" si="0"/>
+        <v>2.6999999999999904</v>
       </c>
       <c r="D30">
         <v>9.3704999999999892</v>
@@ -9731,7 +10039,8 @@
         <v>7.7151593768713805E-2</v>
       </c>
       <c r="F30">
-        <v>7.6999999999999904</v>
+        <f t="shared" si="1"/>
+        <v>2.6999999999999904</v>
       </c>
       <c r="G30">
         <v>9.39</v>
@@ -9740,7 +10049,8 @@
         <v>7.5113948525942498E-2</v>
       </c>
       <c r="I30">
-        <v>7.6999999999999904</v>
+        <f t="shared" si="2"/>
+        <v>2.6999999999999904</v>
       </c>
       <c r="J30">
         <v>9.1615000000000002</v>
@@ -9749,7 +10059,8 @@
         <v>7.9091885271432696E-2</v>
       </c>
       <c r="L30">
-        <v>7.6999999999999904</v>
+        <f t="shared" si="3"/>
+        <v>2.6999999999999904</v>
       </c>
       <c r="M30">
         <v>9.2539999999999907</v>
@@ -9758,10 +10069,14 @@
         <v>0.18675624417095599</v>
       </c>
       <c r="O30">
+        <f t="shared" si="4"/>
+        <v>2.6999999999999904</v>
+      </c>
+      <c r="P30">
         <v>7.6999999999999904</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10.2639999999999</v>
       </c>
@@ -9769,7 +10084,8 @@
         <v>0.157493525347284</v>
       </c>
       <c r="C31">
-        <v>7.7999999999999901</v>
+        <f t="shared" si="0"/>
+        <v>2.7999999999999901</v>
       </c>
       <c r="D31">
         <v>10.0665</v>
@@ -9778,7 +10094,8 @@
         <v>0.104944847670724</v>
       </c>
       <c r="F31">
-        <v>7.7999999999999901</v>
+        <f t="shared" si="1"/>
+        <v>2.7999999999999901</v>
       </c>
       <c r="G31">
         <v>10.071999999999999</v>
@@ -9787,7 +10104,8 @@
         <v>0.12297196942050601</v>
       </c>
       <c r="I31">
-        <v>7.7999999999999901</v>
+        <f t="shared" si="2"/>
+        <v>2.7999999999999901</v>
       </c>
       <c r="J31">
         <v>9.8949999999999907</v>
@@ -9796,7 +10114,8 @@
         <v>9.7791399901713594E-2</v>
       </c>
       <c r="L31">
-        <v>7.7999999999999901</v>
+        <f t="shared" si="3"/>
+        <v>2.7999999999999901</v>
       </c>
       <c r="M31">
         <v>9.8320000000000007</v>
@@ -9805,10 +10124,14 @@
         <v>8.6182181575153005E-2</v>
       </c>
       <c r="O31">
+        <f t="shared" si="4"/>
+        <v>2.7999999999999901</v>
+      </c>
+      <c r="P31">
         <v>7.7999999999999901</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10.802</v>
       </c>
@@ -9816,7 +10139,8 @@
         <v>0.30734174361518302</v>
       </c>
       <c r="C32">
-        <v>7.8999999999999799</v>
+        <f t="shared" si="0"/>
+        <v>2.8999999999999799</v>
       </c>
       <c r="D32">
         <v>10.753499999999899</v>
@@ -9825,7 +10149,8 @@
         <v>0.122443327384764</v>
       </c>
       <c r="F32">
-        <v>7.8999999999999799</v>
+        <f t="shared" si="1"/>
+        <v>2.8999999999999799</v>
       </c>
       <c r="G32">
         <v>10.6465</v>
@@ -9834,7 +10159,8 @@
         <v>0.122400335396857</v>
       </c>
       <c r="I32">
-        <v>7.8999999999999799</v>
+        <f t="shared" si="2"/>
+        <v>2.8999999999999799</v>
       </c>
       <c r="J32">
         <v>10.605</v>
@@ -9843,7 +10169,8 @@
         <v>8.3760309656090701E-2</v>
       </c>
       <c r="L32">
-        <v>7.8999999999999799</v>
+        <f t="shared" si="3"/>
+        <v>2.8999999999999799</v>
       </c>
       <c r="M32">
         <v>10.68</v>
@@ -9852,10 +10179,14 @@
         <v>0.43351683024452797</v>
       </c>
       <c r="O32">
+        <f t="shared" si="4"/>
+        <v>2.8999999999999799</v>
+      </c>
+      <c r="P32">
         <v>7.8999999999999799</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11.429500000000001</v>
       </c>
@@ -9863,7 +10194,8 @@
         <v>9.49501254121842E-2</v>
       </c>
       <c r="C33">
-        <v>7.9999999999999796</v>
+        <f t="shared" si="0"/>
+        <v>2.9999999999999796</v>
       </c>
       <c r="D33">
         <v>11.440999999999899</v>
@@ -9872,7 +10204,8 @@
         <v>0.216452255583924</v>
       </c>
       <c r="F33">
-        <v>7.9999999999999796</v>
+        <f t="shared" si="1"/>
+        <v>2.9999999999999796</v>
       </c>
       <c r="G33">
         <v>11.2769999999999</v>
@@ -9881,7 +10214,8 @@
         <v>8.0726960213197599E-2</v>
       </c>
       <c r="I33">
-        <v>7.9999999999999796</v>
+        <f t="shared" si="2"/>
+        <v>2.9999999999999796</v>
       </c>
       <c r="J33">
         <v>11.255000000000001</v>
@@ -9890,7 +10224,8 @@
         <v>8.2557794748189695E-2</v>
       </c>
       <c r="L33">
-        <v>7.9999999999999796</v>
+        <f t="shared" si="3"/>
+        <v>2.9999999999999796</v>
       </c>
       <c r="M33">
         <v>11.321499999999901</v>
@@ -9899,10 +10234,14 @@
         <v>9.8956396564611401E-2</v>
       </c>
       <c r="O33">
+        <f t="shared" si="4"/>
+        <v>2.9999999999999796</v>
+      </c>
+      <c r="P33">
         <v>7.9999999999999796</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12.1169999999999</v>
       </c>
@@ -9910,7 +10249,8 @@
         <v>0.109932993945833</v>
       </c>
       <c r="C34">
-        <v>8.0999999999999801</v>
+        <f t="shared" si="0"/>
+        <v>3.0999999999999801</v>
       </c>
       <c r="D34">
         <v>12.13</v>
@@ -9919,7 +10259,8 @@
         <v>0.142385688222258</v>
       </c>
       <c r="F34">
-        <v>8.0999999999999801</v>
+        <f t="shared" si="1"/>
+        <v>3.0999999999999801</v>
       </c>
       <c r="G34">
         <v>11.982999999999899</v>
@@ -9928,7 +10269,8 @@
         <v>6.4408237459439896E-2</v>
       </c>
       <c r="I34">
-        <v>8.0999999999999801</v>
+        <f t="shared" si="2"/>
+        <v>3.0999999999999801</v>
       </c>
       <c r="J34">
         <v>11.8424999999999</v>
@@ -9937,7 +10279,8 @@
         <v>7.9463662665462995E-2</v>
       </c>
       <c r="L34">
-        <v>8.0999999999999801</v>
+        <f t="shared" si="3"/>
+        <v>3.0999999999999801</v>
       </c>
       <c r="M34">
         <v>11.9834999999999</v>
@@ -9946,10 +10289,14 @@
         <v>0.14626130185750599</v>
       </c>
       <c r="O34">
+        <f t="shared" si="4"/>
+        <v>3.0999999999999801</v>
+      </c>
+      <c r="P34">
         <v>8.0999999999999801</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12.7735</v>
       </c>
@@ -9957,7 +10304,8 @@
         <v>4.1202324921627398E-2</v>
       </c>
       <c r="C35">
-        <v>8.1999999999999797</v>
+        <f t="shared" si="0"/>
+        <v>3.1999999999999797</v>
       </c>
       <c r="D35">
         <v>12.735499999999901</v>
@@ -9966,7 +10314,8 @@
         <v>6.55723786521831E-2</v>
       </c>
       <c r="F35">
-        <v>8.1999999999999797</v>
+        <f t="shared" si="1"/>
+        <v>3.1999999999999797</v>
       </c>
       <c r="G35">
         <v>12.648999999999999</v>
@@ -9975,7 +10324,8 @@
         <v>6.1976226341872297E-2</v>
       </c>
       <c r="I35">
-        <v>8.1999999999999797</v>
+        <f t="shared" si="2"/>
+        <v>3.1999999999999797</v>
       </c>
       <c r="J35">
         <v>12.558999999999999</v>
@@ -9984,7 +10334,8 @@
         <v>5.3596936283218197E-2</v>
       </c>
       <c r="L35">
-        <v>8.1999999999999797</v>
+        <f t="shared" si="3"/>
+        <v>3.1999999999999797</v>
       </c>
       <c r="M35">
         <v>12.647</v>
@@ -9993,10 +10344,14 @@
         <v>0.33055137350541403</v>
       </c>
       <c r="O35">
+        <f t="shared" si="4"/>
+        <v>3.1999999999999797</v>
+      </c>
+      <c r="P35">
         <v>8.1999999999999797</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>13.407999999999999</v>
       </c>
@@ -10004,7 +10359,8 @@
         <v>0.15483777588852499</v>
       </c>
       <c r="C36">
-        <v>8.2999999999999794</v>
+        <f t="shared" si="0"/>
+        <v>3.2999999999999794</v>
       </c>
       <c r="D36">
         <v>13.312999999999899</v>
@@ -10013,7 +10369,8 @@
         <v>0.25039127275862499</v>
       </c>
       <c r="F36">
-        <v>8.2999999999999794</v>
+        <f t="shared" si="1"/>
+        <v>3.2999999999999794</v>
       </c>
       <c r="G36">
         <v>13.3424999999999</v>
@@ -10022,7 +10379,8 @@
         <v>0.143449055692072</v>
       </c>
       <c r="I36">
-        <v>8.2999999999999794</v>
+        <f t="shared" si="2"/>
+        <v>3.2999999999999794</v>
       </c>
       <c r="J36">
         <v>13.311999999999999</v>
@@ -10031,7 +10389,8 @@
         <v>0.149017837152046</v>
       </c>
       <c r="L36">
-        <v>8.2999999999999794</v>
+        <f t="shared" si="3"/>
+        <v>3.2999999999999794</v>
       </c>
       <c r="M36">
         <v>13.313999999999901</v>
@@ -10040,10 +10399,14 @@
         <v>0.116997525839786</v>
       </c>
       <c r="O36">
+        <f t="shared" si="4"/>
+        <v>3.2999999999999794</v>
+      </c>
+      <c r="P36">
         <v>8.2999999999999794</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14.057499999999999</v>
       </c>
@@ -10051,7 +10414,8 @@
         <v>0.14410796391302499</v>
       </c>
       <c r="C37">
-        <v>8.3999999999999808</v>
+        <f t="shared" si="0"/>
+        <v>3.3999999999999808</v>
       </c>
       <c r="D37">
         <v>14.009</v>
@@ -10060,7 +10424,8 @@
         <v>0.203337934949368</v>
       </c>
       <c r="F37">
-        <v>8.3999999999999808</v>
+        <f>P37-$B$38</f>
+        <v>3.3999999999999808</v>
       </c>
       <c r="G37">
         <v>13.917</v>
@@ -10069,7 +10434,8 @@
         <v>0.13495028324300901</v>
       </c>
       <c r="I37">
-        <v>8.3999999999999808</v>
+        <f t="shared" si="2"/>
+        <v>3.3999999999999808</v>
       </c>
       <c r="J37">
         <v>13.874000000000001</v>
@@ -10078,7 +10444,8 @@
         <v>0.19596992250423401</v>
       </c>
       <c r="L37">
-        <v>8.3999999999999808</v>
+        <f t="shared" si="3"/>
+        <v>3.3999999999999808</v>
       </c>
       <c r="M37">
         <v>13.9399999999999</v>
@@ -10087,7 +10454,19 @@
         <v>0.14552988479491399</v>
       </c>
       <c r="O37">
+        <f t="shared" si="4"/>
+        <v>3.3999999999999808</v>
+      </c>
+      <c r="P37">
         <v>8.3999999999999808</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/tests/rotor4/Rotor4_Thrust_Constant_Calculation.xlsx
+++ b/tests/rotor4/Rotor4_Thrust_Constant_Calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fer\repos\rx-2\tests\rotor4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEBFD61-9934-43D3-AFD5-5E933B58A442}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5F5CC7-5E9B-4783-A940-7A1FD102DD30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Force {N} (mean)</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>offset</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>offset t (ms)</t>
   </si>
 </sst>
 </file>
@@ -600,7 +606,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -615,6 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -993,7 +1000,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$C$3:$C$37</c:f>
+              <c:f>Rotor2!$Q$3:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1001,106 +1008,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,7 +1271,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$C$3:$C$37</c:f>
+              <c:f>Rotor2!$Q$3:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1272,106 +1279,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1831,7 +1838,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.37595174690096206"/>
+                  <c:x val="-0.30124798733326008"/>
                   <c:y val="-2.376179558167751E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1867,7 +1874,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$I$3:$I$37</c:f>
+              <c:f>Rotor2!$Q$3:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1875,106 +1882,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2138,7 +2145,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$I$3:$I$37</c:f>
+              <c:f>Rotor2!$Q$3:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2146,106 +2153,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,8 +2705,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.43400459317585299"/>
-                  <c:y val="4.9586249635462237E-2"/>
+                  <c:x val="-0.28538579602429859"/>
+                  <c:y val="1.5497097506051295E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2734,7 +2741,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$F$3:$F$37</c:f>
+              <c:f>Rotor2!$Q$3:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2742,106 +2749,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3005,7 +3012,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$F$3:$F$37</c:f>
+              <c:f>Rotor2!$Q$3:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3013,106 +3020,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3572,8 +3579,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.31758774472253853"/>
-                  <c:y val="-5.67220068663482E-2"/>
+                  <c:x val="-0.26669157955474926"/>
+                  <c:y val="-2.1804002639431899E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3608,7 +3615,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$L$3:$L$37</c:f>
+              <c:f>Rotor2!$Q$3:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3616,106 +3623,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3879,7 +3886,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$L$3:$L$37</c:f>
+              <c:f>Rotor2!$Q$3:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3887,106 +3894,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4454,8 +4461,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.31615436959268978"/>
-                  <c:y val="-2.8917893606516327E-2"/>
+                  <c:x val="-0.25318784226045821"/>
+                  <c:y val="-1.158466179318335E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4490,7 +4497,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$O$3:$O$37</c:f>
+              <c:f>Rotor2!$Q$3:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -4498,106 +4505,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4761,7 +4768,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Rotor2!$O$3:$O$37</c:f>
+              <c:f>Rotor2!$Q$3:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -4769,106 +4776,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999989875E-2</c:v>
+                  <c:v>1.9999999999997884E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999041</c:v>
+                  <c:v>3.9999999999998155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999005</c:v>
+                  <c:v>5.9999999999997986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3999999999999897</c:v>
+                  <c:v>7.9999999999997823E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999023</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59999999999998987</c:v>
+                  <c:v>0.11999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69999999999999041</c:v>
+                  <c:v>0.13999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999005</c:v>
+                  <c:v>0.15999999999999803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8999999999999897</c:v>
+                  <c:v>0.17999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999023</c:v>
+                  <c:v>0.19999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999899</c:v>
+                  <c:v>0.21999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1999999999999904</c:v>
+                  <c:v>0.23999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999901</c:v>
+                  <c:v>0.25999999999999807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999897</c:v>
+                  <c:v>0.27999999999999792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999999999999902</c:v>
+                  <c:v>0.29999999999999799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>0.31999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6999999999999904</c:v>
+                  <c:v>0.33999999999999808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999901</c:v>
+                  <c:v>0.35999999999999793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999897</c:v>
+                  <c:v>0.37999999999999795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9999999999999902</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0999999999999899</c:v>
+                  <c:v>0.41999999999999788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1999999999999904</c:v>
+                  <c:v>0.43999999999999811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999901</c:v>
+                  <c:v>0.45999999999999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3999999999999897</c:v>
+                  <c:v>0.47999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4999999999999902</c:v>
+                  <c:v>0.49999999999999806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5999999999999899</c:v>
+                  <c:v>0.51999999999999791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6999999999999904</c:v>
+                  <c:v>0.53999999999999815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>0.55999999999999805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8999999999999799</c:v>
+                  <c:v>0.57999999999999585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9999999999999796</c:v>
+                  <c:v>0.59999999999999598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0999999999999801</c:v>
+                  <c:v>0.619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1999999999999797</c:v>
+                  <c:v>0.63999999999999579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2999999999999794</c:v>
+                  <c:v>0.65999999999999592</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3999999999999808</c:v>
+                  <c:v>0.67999999999999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7976,16 +7983,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8012,16 +8019,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8048,16 +8055,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8084,16 +8091,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8120,16 +8127,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8454,15 +8461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -8489,7 +8496,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8536,7 +8543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8590,8 +8597,12 @@
       <c r="P3">
         <v>5</v>
       </c>
+      <c r="Q3">
+        <f>(((P3)/(100*$B$39)) -$B$40)*1000</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8645,8 +8656,12 @@
       <c r="P4">
         <v>5.0999999999999899</v>
       </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q37" si="5">(((P4)/(100*$B$39)) -$B$40)*1000</f>
+        <v>1.9999999999997884E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8700,8 +8715,12 @@
       <c r="P5">
         <v>5.1999999999999904</v>
       </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>3.9999999999998155E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8755,8 +8774,12 @@
       <c r="P6">
         <v>5.2999999999999901</v>
       </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>5.9999999999997986E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.129</v>
       </c>
@@ -8810,8 +8833,12 @@
       <c r="P7">
         <v>5.3999999999999897</v>
       </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>7.9999999999997823E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.254</v>
       </c>
@@ -8865,8 +8892,12 @@
       <c r="P8">
         <v>5.4999999999999902</v>
       </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>9.999999999999809E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.378</v>
       </c>
@@ -8920,8 +8951,12 @@
       <c r="P9">
         <v>5.5999999999999899</v>
       </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0.11999999999999793</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.58299999999999896</v>
       </c>
@@ -8975,8 +9010,12 @@
       <c r="P10">
         <v>5.6999999999999904</v>
       </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>0.13999999999999799</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.64700000000000002</v>
       </c>
@@ -9030,8 +9069,12 @@
       <c r="P11">
         <v>5.7999999999999901</v>
       </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>0.15999999999999803</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.816499999999999</v>
       </c>
@@ -9085,8 +9128,12 @@
       <c r="P12">
         <v>5.8999999999999897</v>
       </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>0.17999999999999788</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.1444999999999901</v>
       </c>
@@ -9140,8 +9187,12 @@
       <c r="P13">
         <v>5.9999999999999902</v>
       </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>0.19999999999999793</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.2969999999999999</v>
       </c>
@@ -9195,8 +9246,12 @@
       <c r="P14">
         <v>6.0999999999999899</v>
       </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>0.21999999999999797</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.71599999999999</v>
       </c>
@@ -9250,8 +9305,12 @@
       <c r="P15">
         <v>6.1999999999999904</v>
       </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>0.23999999999999802</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.9704999999999899</v>
       </c>
@@ -9305,8 +9364,12 @@
       <c r="P16">
         <v>6.2999999999999901</v>
       </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>0.25999999999999807</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.2829999999999901</v>
       </c>
@@ -9360,8 +9423,12 @@
       <c r="P17">
         <v>6.3999999999999897</v>
       </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>0.27999999999999792</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.6399999999999899</v>
       </c>
@@ -9415,8 +9482,12 @@
       <c r="P18">
         <v>6.4999999999999902</v>
       </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>0.29999999999999799</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.1034999999999902</v>
       </c>
@@ -9470,8 +9541,12 @@
       <c r="P19">
         <v>6.5999999999999899</v>
       </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>0.31999999999999801</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.54599999999999</v>
       </c>
@@ -9525,8 +9600,12 @@
       <c r="P20">
         <v>6.6999999999999904</v>
       </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>0.33999999999999808</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.0039999999999996</v>
       </c>
@@ -9580,8 +9659,12 @@
       <c r="P21">
         <v>6.7999999999999901</v>
       </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>0.35999999999999793</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4.4249999999999901</v>
       </c>
@@ -9635,8 +9718,12 @@
       <c r="P22">
         <v>6.8999999999999897</v>
       </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>0.37999999999999795</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.9595000000000002</v>
       </c>
@@ -9690,8 +9777,12 @@
       <c r="P23">
         <v>6.9999999999999902</v>
       </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>0.39999999999999802</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.5169999999999897</v>
       </c>
@@ -9745,8 +9836,12 @@
       <c r="P24">
         <v>7.0999999999999899</v>
       </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>0.41999999999999788</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6.33</v>
       </c>
@@ -9800,8 +9895,12 @@
       <c r="P25">
         <v>7.1999999999999904</v>
       </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>0.43999999999999811</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6.8339999999999996</v>
       </c>
@@ -9855,8 +9954,12 @@
       <c r="P26">
         <v>7.2999999999999901</v>
       </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>0.45999999999999797</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7.4480000000000004</v>
       </c>
@@ -9910,8 +10013,12 @@
       <c r="P27">
         <v>7.3999999999999897</v>
       </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>0.47999999999999798</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8.1539999999999999</v>
       </c>
@@ -9965,8 +10072,12 @@
       <c r="P28">
         <v>7.4999999999999902</v>
       </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>0.49999999999999806</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8.7710000000000008</v>
       </c>
@@ -10020,8 +10131,12 @@
       <c r="P29">
         <v>7.5999999999999899</v>
       </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>0.51999999999999791</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9.4684999999999899</v>
       </c>
@@ -10075,8 +10190,12 @@
       <c r="P30">
         <v>7.6999999999999904</v>
       </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>0.53999999999999815</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10.2639999999999</v>
       </c>
@@ -10130,8 +10249,12 @@
       <c r="P31">
         <v>7.7999999999999901</v>
       </c>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>0.55999999999999805</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10.802</v>
       </c>
@@ -10185,8 +10308,12 @@
       <c r="P32">
         <v>7.8999999999999799</v>
       </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>0.57999999999999585</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11.429500000000001</v>
       </c>
@@ -10240,8 +10367,12 @@
       <c r="P33">
         <v>7.9999999999999796</v>
       </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>0.59999999999999598</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12.1169999999999</v>
       </c>
@@ -10295,8 +10426,12 @@
       <c r="P34">
         <v>8.0999999999999801</v>
       </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>0.619999999999996</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12.7735</v>
       </c>
@@ -10350,8 +10485,12 @@
       <c r="P35">
         <v>8.1999999999999797</v>
       </c>
+      <c r="Q35">
+        <f t="shared" si="5"/>
+        <v>0.63999999999999579</v>
+      </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>13.407999999999999</v>
       </c>
@@ -10405,8 +10544,12 @@
       <c r="P36">
         <v>8.2999999999999794</v>
       </c>
+      <c r="Q36">
+        <f t="shared" si="5"/>
+        <v>0.65999999999999592</v>
+      </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14.057499999999999</v>
       </c>
@@ -10460,13 +10603,33 @@
       <c r="P37">
         <v>8.3999999999999808</v>
       </c>
+      <c r="Q37">
+        <f t="shared" si="5"/>
+        <v>0.67999999999999616</v>
+      </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38">
         <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
